--- a/tut04/output_by_subject/MH603.csv.xlsx
+++ b/tut04/output_by_subject/MH603.csv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,6 +810,380 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2011MT12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2011MT14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2011MT15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2011MT16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2011MT07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2011MT19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2011MT17</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2011MT08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2011MT20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2011MT11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2011MT10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2011MT02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2011MT21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2011MT03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2011MT01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2011MT22</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2011MT04</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MH603</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
